--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Psen1-Notch2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Psen1-Notch2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H2">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I2">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J2">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N2">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O2">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P2">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q2">
-        <v>8.155820647107799</v>
+        <v>11.778525880576</v>
       </c>
       <c r="R2">
-        <v>8.155820647107799</v>
+        <v>106.006732925184</v>
       </c>
       <c r="S2">
-        <v>0.0002363746017504152</v>
+        <v>0.0003015917328257796</v>
       </c>
       <c r="T2">
-        <v>0.0002363746017504152</v>
+        <v>0.0003015917328257795</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H3">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I3">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J3">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N3">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O3">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P3">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q3">
-        <v>145.7817483889742</v>
+        <v>180.3088695060987</v>
       </c>
       <c r="R3">
-        <v>145.7817483889742</v>
+        <v>1622.779825554888</v>
       </c>
       <c r="S3">
-        <v>0.004225093244312922</v>
+        <v>0.004616848063124717</v>
       </c>
       <c r="T3">
-        <v>0.004225093244312922</v>
+        <v>0.004616848063124717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H4">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I4">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J4">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N4">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O4">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P4">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q4">
-        <v>367.8455739075349</v>
+        <v>514.1121309234213</v>
       </c>
       <c r="R4">
-        <v>367.8455739075349</v>
+        <v>4627.009178310792</v>
       </c>
       <c r="S4">
-        <v>0.01066101803855634</v>
+        <v>0.01316395362238371</v>
       </c>
       <c r="T4">
-        <v>0.01066101803855634</v>
+        <v>0.01316395362238371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H5">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I5">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J5">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N5">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O5">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P5">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q5">
-        <v>406.4946251663571</v>
+        <v>507.7429523728987</v>
       </c>
       <c r="R5">
-        <v>406.4946251663571</v>
+        <v>4569.686571356088</v>
       </c>
       <c r="S5">
-        <v>0.01178115719985278</v>
+        <v>0.01300086941174436</v>
       </c>
       <c r="T5">
-        <v>0.01178115719985278</v>
+        <v>0.01300086941174436</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H6">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I6">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J6">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N6">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O6">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P6">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q6">
-        <v>640.4760324018903</v>
+        <v>820.7908489714267</v>
       </c>
       <c r="R6">
-        <v>640.4760324018903</v>
+        <v>7387.11764074284</v>
       </c>
       <c r="S6">
-        <v>0.0185624811579653</v>
+        <v>0.02101652931264178</v>
       </c>
       <c r="T6">
-        <v>0.0185624811579653</v>
+        <v>0.02101652931264178</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H7">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I7">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J7">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N7">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O7">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P7">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q7">
-        <v>169.3163801670363</v>
+        <v>269.1331767230773</v>
       </c>
       <c r="R7">
-        <v>169.3163801670363</v>
+        <v>2422.198590507696</v>
       </c>
       <c r="S7">
-        <v>0.004907181467507829</v>
+        <v>0.006891213888036244</v>
       </c>
       <c r="T7">
-        <v>0.004907181467507829</v>
+        <v>0.006891213888036244</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H8">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I8">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J8">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N8">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O8">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P8">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q8">
-        <v>30.63812087884773</v>
+        <v>36.26544088992</v>
       </c>
       <c r="R8">
-        <v>30.63812087884773</v>
+        <v>326.3889680092801</v>
       </c>
       <c r="S8">
-        <v>0.0008879638155955382</v>
+        <v>0.0009285845504418072</v>
       </c>
       <c r="T8">
-        <v>0.0008879638155955382</v>
+        <v>0.0009285845504418071</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H9">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I9">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J9">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N9">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O9">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P9">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q9">
-        <v>547.6430910303367</v>
+        <v>555.1612073786899</v>
       </c>
       <c r="R9">
-        <v>547.6430910303367</v>
+        <v>4996.45086640821</v>
       </c>
       <c r="S9">
-        <v>0.01587196716857268</v>
+        <v>0.01421502420834374</v>
       </c>
       <c r="T9">
-        <v>0.01587196716857268</v>
+        <v>0.01421502420834374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H10">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I10">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J10">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N10">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O10">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P10">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q10">
-        <v>1381.847105983718</v>
+        <v>1582.92330329221</v>
       </c>
       <c r="R10">
-        <v>1381.847105983718</v>
+        <v>14246.30972962989</v>
       </c>
       <c r="S10">
-        <v>0.04004913465975928</v>
+        <v>0.04053109759324643</v>
       </c>
       <c r="T10">
-        <v>0.04004913465975928</v>
+        <v>0.04053109759324643</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H11">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I11">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J11">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N11">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O11">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P11">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q11">
-        <v>1527.035966253775</v>
+        <v>1563.31294877219</v>
       </c>
       <c r="R11">
-        <v>1527.035966253775</v>
+        <v>14069.81653894971</v>
       </c>
       <c r="S11">
-        <v>0.04425704463103868</v>
+        <v>0.04002897017416303</v>
       </c>
       <c r="T11">
-        <v>0.04425704463103868</v>
+        <v>0.04002897017416304</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H12">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I12">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J12">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N12">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O12">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P12">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q12">
-        <v>2406.009517594354</v>
+        <v>2527.17040469795</v>
       </c>
       <c r="R12">
-        <v>2406.009517594354</v>
+        <v>22744.53364228155</v>
       </c>
       <c r="S12">
-        <v>0.06973173714048657</v>
+        <v>0.06470875126706511</v>
       </c>
       <c r="T12">
-        <v>0.06973173714048657</v>
+        <v>0.06470875126706511</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H13">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I13">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J13">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N13">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O13">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P13">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q13">
-        <v>636.0531878746241</v>
+        <v>828.64642069198</v>
       </c>
       <c r="R13">
-        <v>636.0531878746241</v>
+        <v>7457.817786227821</v>
       </c>
       <c r="S13">
-        <v>0.01843429686370825</v>
+        <v>0.02121767294568723</v>
       </c>
       <c r="T13">
-        <v>0.01843429686370825</v>
+        <v>0.02121767294568723</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H14">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I14">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J14">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N14">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O14">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P14">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q14">
-        <v>30.61559810102325</v>
+        <v>40.286000875136</v>
       </c>
       <c r="R14">
-        <v>30.61559810102325</v>
+        <v>362.574007876224</v>
       </c>
       <c r="S14">
-        <v>0.0008873110532471581</v>
+        <v>0.001031531868736615</v>
       </c>
       <c r="T14">
-        <v>0.0008873110532471581</v>
+        <v>0.001031531868736615</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H15">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I15">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J15">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N15">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O15">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P15">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q15">
-        <v>547.2405061683224</v>
+        <v>616.7090303461853</v>
       </c>
       <c r="R15">
-        <v>547.2405061683224</v>
+        <v>5550.381273115668</v>
       </c>
       <c r="S15">
-        <v>0.01586029932537862</v>
+        <v>0.01579096968476642</v>
       </c>
       <c r="T15">
-        <v>0.01586029932537862</v>
+        <v>0.01579096968476642</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H16">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I16">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J16">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N16">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O16">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P16">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q16">
-        <v>1380.831278822564</v>
+        <v>1758.413740929535</v>
       </c>
       <c r="R16">
-        <v>1380.831278822564</v>
+        <v>15825.72366836581</v>
       </c>
       <c r="S16">
-        <v>0.04001969363217239</v>
+        <v>0.04502456865388878</v>
       </c>
       <c r="T16">
-        <v>0.04001969363217239</v>
+        <v>0.04502456865388878</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H17">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I17">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J17">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N17">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O17">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P17">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q17">
-        <v>1525.91340746716</v>
+        <v>1736.629288845985</v>
       </c>
       <c r="R17">
-        <v>1525.91340746716</v>
+        <v>15629.66359961387</v>
       </c>
       <c r="S17">
-        <v>0.04422451027335616</v>
+        <v>0.04446677299090412</v>
       </c>
       <c r="T17">
-        <v>0.04422451027335616</v>
+        <v>0.04446677299090412</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H18">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I18">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J18">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N18">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O18">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P18">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q18">
-        <v>2404.240805406599</v>
+        <v>2807.344585836193</v>
       </c>
       <c r="R18">
-        <v>2404.240805406599</v>
+        <v>25266.10127252574</v>
       </c>
       <c r="S18">
-        <v>0.06968047575833</v>
+        <v>0.07188267248940355</v>
       </c>
       <c r="T18">
-        <v>0.06968047575833</v>
+        <v>0.07188267248940355</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H19">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I19">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J19">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N19">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O19">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P19">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q19">
-        <v>635.5856107444306</v>
+        <v>920.5141206060507</v>
       </c>
       <c r="R19">
-        <v>635.5856107444306</v>
+        <v>8284.627085454456</v>
       </c>
       <c r="S19">
-        <v>0.01842074539381708</v>
+        <v>0.02356996550663445</v>
       </c>
       <c r="T19">
-        <v>0.01842074539381708</v>
+        <v>0.02356996550663445</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H20">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I20">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J20">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N20">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O20">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P20">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q20">
-        <v>37.76421523821938</v>
+        <v>45.44888725269332</v>
       </c>
       <c r="R20">
-        <v>37.76421523821938</v>
+        <v>409.03998527424</v>
       </c>
       <c r="S20">
-        <v>0.001094494560828353</v>
+        <v>0.001163728704298008</v>
       </c>
       <c r="T20">
-        <v>0.001094494560828353</v>
+        <v>0.001163728704298008</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H21">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I21">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J21">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N21">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O21">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P21">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q21">
-        <v>675.0189296913305</v>
+        <v>695.7438956225755</v>
       </c>
       <c r="R21">
-        <v>675.0189296913305</v>
+        <v>6261.69506060318</v>
       </c>
       <c r="S21">
-        <v>0.01956361445201247</v>
+        <v>0.0178146747064336</v>
       </c>
       <c r="T21">
-        <v>0.01956361445201247</v>
+        <v>0.01781467470643361</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H22">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I22">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J22">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N22">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O22">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P22">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q22">
-        <v>1703.249743776136</v>
+        <v>1983.764735119624</v>
       </c>
       <c r="R22">
-        <v>1703.249743776136</v>
+        <v>17853.88261607662</v>
       </c>
       <c r="S22">
-        <v>0.04936412867408407</v>
+        <v>0.05079473017672254</v>
       </c>
       <c r="T22">
-        <v>0.04936412867408407</v>
+        <v>0.05079473017672254</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H23">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I23">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J23">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N23">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O23">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P23">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q23">
-        <v>1882.20795701354</v>
+        <v>1959.188478228909</v>
       </c>
       <c r="R23">
-        <v>1882.20795701354</v>
+        <v>17632.69630406018</v>
       </c>
       <c r="S23">
-        <v>0.05455075283053337</v>
+        <v>0.05016544974068211</v>
       </c>
       <c r="T23">
-        <v>0.05455075283053337</v>
+        <v>0.05016544974068211</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H24">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I24">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J24">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N24">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O24">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P24">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q24">
-        <v>2965.621215704753</v>
+        <v>3167.122196034989</v>
       </c>
       <c r="R24">
-        <v>2965.621215704753</v>
+        <v>28504.0997643149</v>
       </c>
       <c r="S24">
-        <v>0.08595058230631636</v>
+        <v>0.08109485693352909</v>
       </c>
       <c r="T24">
-        <v>0.08595058230631636</v>
+        <v>0.08109485693352911</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H25">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I25">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J25">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N25">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O25">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P25">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q25">
-        <v>783.9922554269999</v>
+        <v>1038.483383138618</v>
       </c>
       <c r="R25">
-        <v>783.9922554269999</v>
+        <v>9346.35044824756</v>
       </c>
       <c r="S25">
-        <v>0.02272191422179977</v>
+        <v>0.02659059429058516</v>
       </c>
       <c r="T25">
-        <v>0.02272191422179977</v>
+        <v>0.02659059429058516</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.1590691026041</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H26">
-        <v>40.1590691026041</v>
+        <v>120.867256</v>
       </c>
       <c r="I26">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J26">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N26">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O26">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P26">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q26">
-        <v>41.45066895108673</v>
+        <v>49.04438704529066</v>
       </c>
       <c r="R26">
-        <v>41.45066895108673</v>
+        <v>441.399483407616</v>
       </c>
       <c r="S26">
-        <v>0.001201336541047642</v>
+        <v>0.001255792263339162</v>
       </c>
       <c r="T26">
-        <v>0.001201336541047642</v>
+        <v>0.001255792263339162</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>40.1590691026041</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H27">
-        <v>40.1590691026041</v>
+        <v>120.867256</v>
       </c>
       <c r="I27">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J27">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N27">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O27">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P27">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q27">
-        <v>740.9126871524397</v>
+        <v>750.7847818494123</v>
       </c>
       <c r="R27">
-        <v>740.9126871524397</v>
+        <v>6757.063036644711</v>
       </c>
       <c r="S27">
-        <v>0.02147336839973219</v>
+        <v>0.01922400864361102</v>
       </c>
       <c r="T27">
-        <v>0.02147336839973219</v>
+        <v>0.01922400864361102</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>40.1590691026041</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H28">
-        <v>40.1590691026041</v>
+        <v>120.867256</v>
       </c>
       <c r="I28">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J28">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N28">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O28">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P28">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q28">
-        <v>1869.516970627689</v>
+        <v>2140.702036005067</v>
       </c>
       <c r="R28">
-        <v>1869.516970627689</v>
+        <v>19266.31832404561</v>
       </c>
       <c r="S28">
-        <v>0.05418293860526111</v>
+        <v>0.05481314411059988</v>
       </c>
       <c r="T28">
-        <v>0.05418293860526111</v>
+        <v>0.05481314411059988</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>40.1590691026041</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H29">
-        <v>40.1590691026041</v>
+        <v>120.867256</v>
       </c>
       <c r="I29">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J29">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N29">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O29">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P29">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q29">
-        <v>2065.944662986414</v>
+        <v>2114.181530709279</v>
       </c>
       <c r="R29">
-        <v>2065.944662986414</v>
+        <v>19027.63377638351</v>
       </c>
       <c r="S29">
-        <v>0.05987586879132543</v>
+        <v>0.05413408076866147</v>
       </c>
       <c r="T29">
-        <v>0.05987586879132543</v>
+        <v>0.05413408076866146</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>40.1590691026041</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H30">
-        <v>40.1590691026041</v>
+        <v>120.867256</v>
       </c>
       <c r="I30">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J30">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N30">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O30">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P30">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q30">
-        <v>3255.118171291654</v>
+        <v>3417.675903448351</v>
       </c>
       <c r="R30">
-        <v>3255.118171291654</v>
+        <v>30759.08313103516</v>
       </c>
       <c r="S30">
-        <v>0.09434087563738389</v>
+        <v>0.08751033944389432</v>
       </c>
       <c r="T30">
-        <v>0.09434087563738389</v>
+        <v>0.08751033944389432</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>40.1590691026041</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H31">
-        <v>40.1590691026041</v>
+        <v>120.867256</v>
       </c>
       <c r="I31">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J31">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N31">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O31">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P31">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q31">
-        <v>860.523732187389</v>
+        <v>1120.638679217278</v>
       </c>
       <c r="R31">
-        <v>860.523732187389</v>
+        <v>10085.7481129555</v>
       </c>
       <c r="S31">
-        <v>0.02493997395157365</v>
+        <v>0.02869419862583042</v>
       </c>
       <c r="T31">
-        <v>0.02493997395157365</v>
+        <v>0.02869419862583042</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.8692659796151</v>
+        <v>13.83640933333333</v>
       </c>
       <c r="H32">
-        <v>12.8692659796151</v>
+        <v>41.509228</v>
       </c>
       <c r="I32">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="J32">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N32">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O32">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P32">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q32">
-        <v>13.28316855158173</v>
+        <v>16.84322711837867</v>
       </c>
       <c r="R32">
-        <v>13.28316855158173</v>
+        <v>151.589044065408</v>
       </c>
       <c r="S32">
-        <v>0.0003849770381448006</v>
+        <v>0.0004312745163965773</v>
       </c>
       <c r="T32">
-        <v>0.0003849770381448006</v>
+        <v>0.0004312745163965773</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.8692659796151</v>
+        <v>13.83640933333333</v>
       </c>
       <c r="H33">
-        <v>12.8692659796151</v>
+        <v>41.509228</v>
       </c>
       <c r="I33">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="J33">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N33">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O33">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P33">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q33">
-        <v>237.4308631077757</v>
+        <v>257.8406900270618</v>
       </c>
       <c r="R33">
-        <v>237.4308631077757</v>
+        <v>2320.566210243556</v>
       </c>
       <c r="S33">
-        <v>0.006881297191136729</v>
+        <v>0.006602067294897642</v>
       </c>
       <c r="T33">
-        <v>0.006881297191136729</v>
+        <v>0.006602067294897642</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.8692659796151</v>
+        <v>13.83640933333333</v>
       </c>
       <c r="H34">
-        <v>12.8692659796151</v>
+        <v>41.509228</v>
       </c>
       <c r="I34">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="J34">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N34">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O34">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P34">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q34">
-        <v>599.1003199536786</v>
+        <v>735.1775148481782</v>
       </c>
       <c r="R34">
-        <v>599.1003199536786</v>
+        <v>6616.597633633604</v>
       </c>
       <c r="S34">
-        <v>0.0173633170302507</v>
+        <v>0.01882438115649575</v>
       </c>
       <c r="T34">
-        <v>0.0173633170302507</v>
+        <v>0.01882438115649575</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.8692659796151</v>
+        <v>13.83640933333333</v>
       </c>
       <c r="H35">
-        <v>12.8692659796151</v>
+        <v>41.509228</v>
       </c>
       <c r="I35">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="J35">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N35">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O35">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P35">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q35">
-        <v>662.0470036098125</v>
+        <v>726.0696246103286</v>
       </c>
       <c r="R35">
-        <v>662.0470036098125</v>
+        <v>6534.626621492956</v>
       </c>
       <c r="S35">
-        <v>0.01918765794265224</v>
+        <v>0.01859117163375319</v>
       </c>
       <c r="T35">
-        <v>0.01918765794265224</v>
+        <v>0.01859117163375318</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.8692659796151</v>
+        <v>13.83640933333333</v>
       </c>
       <c r="H36">
-        <v>12.8692659796151</v>
+        <v>41.509228</v>
       </c>
       <c r="I36">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="J36">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N36">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O36">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P36">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q36">
-        <v>1043.126309387341</v>
+        <v>1173.726392087065</v>
       </c>
       <c r="R36">
-        <v>1043.126309387341</v>
+        <v>10563.53752878358</v>
       </c>
       <c r="S36">
-        <v>0.03023222022964063</v>
+        <v>0.0300535211317613</v>
       </c>
       <c r="T36">
-        <v>0.03023222022964063</v>
+        <v>0.0300535211317613</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.8692659796151</v>
+        <v>13.83640933333333</v>
       </c>
       <c r="H37">
-        <v>12.8692659796151</v>
+        <v>41.509228</v>
       </c>
       <c r="I37">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="J37">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N37">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O37">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P37">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q37">
-        <v>275.7610930421809</v>
+        <v>384.8589599920169</v>
       </c>
       <c r="R37">
-        <v>275.7610930421809</v>
+        <v>3463.730639928152</v>
       </c>
       <c r="S37">
-        <v>0.007992196170868439</v>
+        <v>0.009854397894470953</v>
       </c>
       <c r="T37">
-        <v>0.007992196170868439</v>
+        <v>0.009854397894470953</v>
       </c>
     </row>
   </sheetData>
